--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N2">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O2">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P2">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q2">
-        <v>0.3395316083683333</v>
+        <v>0.016942054292</v>
       </c>
       <c r="R2">
-        <v>3.055784475315</v>
+        <v>0.152478488628</v>
       </c>
       <c r="S2">
-        <v>0.09346482937833647</v>
+        <v>0.007371785605847351</v>
       </c>
       <c r="T2">
-        <v>0.09346482937833646</v>
+        <v>0.00737178560584735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P3">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q3">
-        <v>0.8716434418986666</v>
+        <v>0.049343031168</v>
       </c>
       <c r="R3">
-        <v>7.844790977088</v>
+        <v>0.444087280512</v>
       </c>
       <c r="S3">
-        <v>0.2399423310463221</v>
+        <v>0.0214700201430059</v>
       </c>
       <c r="T3">
-        <v>0.239942331046322</v>
+        <v>0.0214700201430059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N4">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q4">
-        <v>0.05686096290333333</v>
+        <v>0.002045846848</v>
       </c>
       <c r="R4">
-        <v>0.5117486661299999</v>
+        <v>0.018412621632</v>
       </c>
       <c r="S4">
-        <v>0.01565244609062332</v>
+        <v>0.0008901839225586737</v>
       </c>
       <c r="T4">
-        <v>0.01565244609062333</v>
+        <v>0.0008901839225586737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H5">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N5">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q5">
-        <v>1.920120892051556</v>
+        <v>0.038316687374</v>
       </c>
       <c r="R5">
-        <v>17.281088028464</v>
+        <v>0.344850186366</v>
       </c>
       <c r="S5">
-        <v>0.5285627821922563</v>
+        <v>0.01667226415280609</v>
       </c>
       <c r="T5">
-        <v>0.5285627821922563</v>
+        <v>0.01667226415280609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.090071</v>
+      </c>
+      <c r="I6">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J6">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.283071</v>
-      </c>
-      <c r="H6">
-        <v>0.849213</v>
-      </c>
-      <c r="I6">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J6">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N6">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O6">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P6">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q6">
-        <v>0.04734504010500001</v>
+        <v>0.2992809757802222</v>
       </c>
       <c r="R6">
-        <v>0.426105360945</v>
+        <v>2.693528782022</v>
       </c>
       <c r="S6">
-        <v>0.01303294299046189</v>
+        <v>0.1302224128984388</v>
       </c>
       <c r="T6">
-        <v>0.01303294299046189</v>
+        <v>0.1302224128984388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H7">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P7">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q7">
-        <v>0.121543893696</v>
+        <v>0.8716434418986666</v>
       </c>
       <c r="R7">
-        <v>1.093895043264</v>
+        <v>7.844790977088</v>
       </c>
       <c r="S7">
-        <v>0.03345809051730929</v>
+        <v>0.379267382082111</v>
       </c>
       <c r="T7">
-        <v>0.03345809051730928</v>
+        <v>0.379267382082111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H8">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N8">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q8">
-        <v>0.007928818709999999</v>
+        <v>0.03613983466311111</v>
       </c>
       <c r="R8">
-        <v>0.07135936839</v>
+        <v>0.325258511968</v>
       </c>
       <c r="S8">
-        <v>0.002182611779395758</v>
+        <v>0.01572507727666923</v>
       </c>
       <c r="T8">
-        <v>0.002182611779395758</v>
+        <v>0.01572507727666923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.090071</v>
+      </c>
+      <c r="I9">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J9">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3334263333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.000279</v>
+      </c>
+      <c r="O9">
+        <v>0.3592830996908513</v>
+      </c>
+      <c r="P9">
+        <v>0.3592830996908513</v>
+      </c>
+      <c r="Q9">
+        <v>0.6768633477565555</v>
+      </c>
+      <c r="R9">
+        <v>6.091770129808999</v>
+      </c>
+      <c r="S9">
+        <v>0.2945151395526779</v>
+      </c>
+      <c r="T9">
+        <v>0.2945151395526779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.994537</v>
+      </c>
+      <c r="I10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1474273333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.442282</v>
+      </c>
+      <c r="O10">
+        <v>0.1588601259223368</v>
+      </c>
+      <c r="P10">
+        <v>0.1588601259223368</v>
+      </c>
+      <c r="Q10">
+        <v>0.04887397927044444</v>
+      </c>
+      <c r="R10">
+        <v>0.439865813434</v>
+      </c>
+      <c r="S10">
+        <v>0.02126592741805057</v>
+      </c>
+      <c r="T10">
+        <v>0.02126592741805057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.283071</v>
-      </c>
-      <c r="H9">
-        <v>0.849213</v>
-      </c>
-      <c r="I9">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J9">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.9458613333333333</v>
-      </c>
-      <c r="N9">
-        <v>2.837584</v>
-      </c>
-      <c r="O9">
-        <v>0.6022667481975512</v>
-      </c>
-      <c r="P9">
-        <v>0.6022667481975512</v>
-      </c>
-      <c r="Q9">
-        <v>0.267745913488</v>
-      </c>
-      <c r="R9">
-        <v>2.409713221392</v>
-      </c>
-      <c r="S9">
-        <v>0.07370396600529494</v>
-      </c>
-      <c r="T9">
-        <v>0.07370396600529494</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.994537</v>
+      </c>
+      <c r="I11">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J11">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.429376</v>
+      </c>
+      <c r="N11">
+        <v>1.288128</v>
+      </c>
+      <c r="O11">
+        <v>0.4626735347223893</v>
+      </c>
+      <c r="P11">
+        <v>0.4626735347223893</v>
+      </c>
+      <c r="Q11">
+        <v>0.1423434396373333</v>
+      </c>
+      <c r="R11">
+        <v>1.281090956736</v>
+      </c>
+      <c r="S11">
+        <v>0.06193613249727244</v>
+      </c>
+      <c r="T11">
+        <v>0.06193613249727243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.994537</v>
+      </c>
+      <c r="I12">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J12">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01780266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.053408</v>
+      </c>
+      <c r="O12">
+        <v>0.01918323966442261</v>
+      </c>
+      <c r="P12">
+        <v>0.01918323966442261</v>
+      </c>
+      <c r="Q12">
+        <v>0.005901803566222222</v>
+      </c>
+      <c r="R12">
+        <v>0.053116232096</v>
+      </c>
+      <c r="S12">
+        <v>0.002567978465194706</v>
+      </c>
+      <c r="T12">
+        <v>0.002567978465194706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.994537</v>
+      </c>
+      <c r="I13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3334263333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.000279</v>
+      </c>
+      <c r="O13">
+        <v>0.3592830996908513</v>
+      </c>
+      <c r="P13">
+        <v>0.3592830996908513</v>
+      </c>
+      <c r="Q13">
+        <v>0.1105349417581111</v>
+      </c>
+      <c r="R13">
+        <v>0.994814475823</v>
+      </c>
+      <c r="S13">
+        <v>0.04809569598536727</v>
+      </c>
+      <c r="T13">
+        <v>0.04809569598536727</v>
       </c>
     </row>
   </sheetData>
